--- a/medicine/Mort/Liste_des_exécutions_les_plus_récentes_par_pays/Liste_des_exécutions_les_plus_récentes_par_pays.xlsx
+++ b/medicine/Mort/Liste_des_exécutions_les_plus_récentes_par_pays/Liste_des_exécutions_les_plus_récentes_par_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine capitale est maintenue en droit par 55 pays, 140 pays l'ayant abolie en droit ou en pratique. Les exécutions légales les plus récentes effectuées par les nations et autres entités ayant une juridiction pénale sur les personnes présentes sur son territoire sont énumérées ci-dessous. Les exécutions extrajudiciaires et les assassinats ne sont pas inclus. En général, les exécutions effectuées sur le territoire d'un État souverain lorsqu'il était une colonie ou avant que l'État souverain n'obtienne son indépendance ne sont pas incluses. Les couleurs sur la carte[Laquelle ?] correspondent et ont la même signification que les couleurs des cartes[pas clair].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -571,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,6 +608,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -597,7 +617,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_ex%C3%A9cutions_les_plus_r%C3%A9centes_par_pays</t>
+          <t>Liste_des_exécutions_les_plus_récentes_par_pays</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -616,6 +636,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
